--- a/state_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
+++ b/state_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U394"/>
+  <dimension ref="A1:U415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.07760803965338</v>
+        <v>2.07727734951934</v>
       </c>
       <c r="H2" t="n">
         <v>4.52</v>
@@ -813,7 +813,7 @@
         <v>0.01289</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0148220984654673</v>
+        <v>0.0148197951951326</v>
       </c>
       <c r="H5" t="n">
         <v>0.0548506409112239</v>
@@ -894,7 +894,7 @@
         <v>0.01289</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0148220984654673</v>
+        <v>0.0148197951951326</v>
       </c>
       <c r="H6" t="n">
         <v>0.0548506409112239</v>
@@ -1133,7 +1133,7 @@
         <v>0.891</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9256799999999999</v>
+        <v>0.92567</v>
       </c>
       <c r="H9" t="n">
         <v>1.723</v>
@@ -1210,7 +1210,7 @@
         <v>0.891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9256799999999999</v>
+        <v>0.92567</v>
       </c>
       <c r="H10" t="n">
         <v>1.723</v>
@@ -1291,7 +1291,7 @@
         <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99966240238853</v>
+        <v>1.99933922793935</v>
       </c>
       <c r="H11" t="n">
         <v>4.8</v>
@@ -1534,7 +1534,7 @@
         <v>0.01319</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0149928835243627</v>
+        <v>0.0149902396592204</v>
       </c>
       <c r="H14" t="n">
         <v>0.047796455315281</v>
@@ -1615,7 +1615,7 @@
         <v>0.01319</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0149928835243627</v>
+        <v>0.0149902396592204</v>
       </c>
       <c r="H15" t="n">
         <v>0.047796455315281</v>
@@ -1854,7 +1854,7 @@
         <v>0.997</v>
       </c>
       <c r="G18" t="n">
-        <v>1.05374509803922</v>
+        <v>1.05373529411765</v>
       </c>
       <c r="H18" t="n">
         <v>2.01</v>
@@ -1931,7 +1931,7 @@
         <v>0.997</v>
       </c>
       <c r="G19" t="n">
-        <v>1.05374509803922</v>
+        <v>1.05373529411765</v>
       </c>
       <c r="H19" t="n">
         <v>2.01</v>
@@ -2255,7 +2255,7 @@
         <v>0.01491</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0158222779637666</v>
+        <v>0.015819810127801</v>
       </c>
       <c r="H23" t="n">
         <v>0.0529006438722192</v>
@@ -2336,7 +2336,7 @@
         <v>0.01491</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0158222779637666</v>
+        <v>0.015819810127801</v>
       </c>
       <c r="H24" t="n">
         <v>0.0529006438722192</v>
@@ -2575,7 +2575,7 @@
         <v>1.01</v>
       </c>
       <c r="G27" t="n">
-        <v>1.10117647058824</v>
+        <v>1.10116666666667</v>
       </c>
       <c r="H27" t="n">
         <v>2.01</v>
@@ -2652,7 +2652,7 @@
         <v>1.01</v>
       </c>
       <c r="G28" t="n">
-        <v>1.10117647058824</v>
+        <v>1.10116666666667</v>
       </c>
       <c r="H28" t="n">
         <v>2.01</v>
@@ -2976,7 +2976,7 @@
         <v>0.01871</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0218189464581319</v>
+        <v>0.0218170522907739</v>
       </c>
       <c r="H32" t="n">
         <v>0.08735236501992651</v>
@@ -3057,7 +3057,7 @@
         <v>0.01871</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0218189464581319</v>
+        <v>0.0218170522907739</v>
       </c>
       <c r="H33" t="n">
         <v>0.08735236501992651</v>
@@ -3697,7 +3697,7 @@
         <v>0.02105</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0258284317892432</v>
+        <v>0.0258280460322722</v>
       </c>
       <c r="H41" t="n">
         <v>0.0888844923603824</v>
@@ -3778,7 +3778,7 @@
         <v>0.02105</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0258284317892432</v>
+        <v>0.0258280460322722</v>
       </c>
       <c r="H42" t="n">
         <v>0.0888844923603824</v>
@@ -4495,7 +4495,7 @@
         <v>0.0221</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0265726976003925</v>
+        <v>0.0265723641494514</v>
       </c>
       <c r="H51" t="n">
         <v>0.0888844923603824</v>
@@ -4576,7 +4576,7 @@
         <v>0.0221</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0265726976003925</v>
+        <v>0.0265723641494514</v>
       </c>
       <c r="H52" t="n">
         <v>0.0888844923603824</v>
@@ -5293,7 +5293,7 @@
         <v>0.01871</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0235317311551579</v>
+        <v>0.0235314096416427</v>
       </c>
       <c r="H61" t="n">
         <v>0.0888844923603824</v>
@@ -5374,7 +5374,7 @@
         <v>0.01871</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0235317311551579</v>
+        <v>0.0235314096416427</v>
       </c>
       <c r="H62" t="n">
         <v>0.0888844923603824</v>
@@ -5613,7 +5613,7 @@
         <v>1.25</v>
       </c>
       <c r="G65" t="n">
-        <v>1.2834406779661</v>
+        <v>1.28343220338983</v>
       </c>
       <c r="H65" t="n">
         <v>2.21</v>
@@ -5627,7 +5627,7 @@
         <v>1.28</v>
       </c>
       <c r="M65" t="n">
-        <v>1.78021</v>
+        <v>1.77997</v>
       </c>
       <c r="N65" t="n">
         <v>1.9068</v>
@@ -5690,7 +5690,7 @@
         <v>1.25</v>
       </c>
       <c r="G66" t="n">
-        <v>1.2834406779661</v>
+        <v>1.28343220338983</v>
       </c>
       <c r="H66" t="n">
         <v>2.21</v>
@@ -5704,7 +5704,7 @@
         <v>1.28</v>
       </c>
       <c r="M66" t="n">
-        <v>1.78021</v>
+        <v>1.77997</v>
       </c>
       <c r="N66" t="n">
         <v>1.9068</v>
@@ -6091,7 +6091,7 @@
         <v>0.01368</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0216724653328287</v>
+        <v>0.0216721438193136</v>
       </c>
       <c r="H71" t="n">
         <v>0.0888844923603824</v>
@@ -6172,7 +6172,7 @@
         <v>0.01368</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0216724653328287</v>
+        <v>0.0216721438193136</v>
       </c>
       <c r="H72" t="n">
         <v>0.0888844923603824</v>
@@ -6411,7 +6411,7 @@
         <v>1.24</v>
       </c>
       <c r="G75" t="n">
-        <v>1.28618644067797</v>
+        <v>1.28617796610169</v>
       </c>
       <c r="H75" t="n">
         <v>2.34</v>
@@ -6425,7 +6425,7 @@
         <v>1.239</v>
       </c>
       <c r="M75" t="n">
-        <v>1.77279</v>
+        <v>1.77255</v>
       </c>
       <c r="N75" t="n">
         <v>1.92</v>
@@ -6488,7 +6488,7 @@
         <v>1.24</v>
       </c>
       <c r="G76" t="n">
-        <v>1.28618644067797</v>
+        <v>1.28617796610169</v>
       </c>
       <c r="H76" t="n">
         <v>2.34</v>
@@ -6502,7 +6502,7 @@
         <v>1.239</v>
       </c>
       <c r="M76" t="n">
-        <v>1.77279</v>
+        <v>1.77255</v>
       </c>
       <c r="N76" t="n">
         <v>1.92</v>
@@ -6812,7 +6812,7 @@
         <v>126.5</v>
       </c>
       <c r="G80" t="n">
-        <v>524.246682105428</v>
+        <v>524.24641550287</v>
       </c>
       <c r="H80" t="n">
         <v>12050</v>
@@ -6897,7 +6897,7 @@
         <v>126.5</v>
       </c>
       <c r="G81" t="n">
-        <v>524.246682105428</v>
+        <v>524.24641550287</v>
       </c>
       <c r="H81" t="n">
         <v>12050</v>
@@ -6982,7 +6982,7 @@
         <v>126.5</v>
       </c>
       <c r="G82" t="n">
-        <v>524.246682105428</v>
+        <v>524.24641550287</v>
       </c>
       <c r="H82" t="n">
         <v>12050</v>
@@ -7067,7 +7067,7 @@
         <v>126.5</v>
       </c>
       <c r="G83" t="n">
-        <v>524.246682105428</v>
+        <v>524.24641550287</v>
       </c>
       <c r="H83" t="n">
         <v>12050</v>
@@ -7229,7 +7229,7 @@
         <v>0.01134</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01615424199684</v>
+        <v>0.0161528420080354</v>
       </c>
       <c r="H85" t="n">
         <v>0.0888844923603824</v>
@@ -7310,7 +7310,7 @@
         <v>0.01134</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01615424199684</v>
+        <v>0.0161528420080354</v>
       </c>
       <c r="H86" t="n">
         <v>0.0888844923603824</v>
@@ -7549,7 +7549,7 @@
         <v>1.129</v>
       </c>
       <c r="G89" t="n">
-        <v>1.21472881355932</v>
+        <v>1.21472033898305</v>
       </c>
       <c r="H89" t="n">
         <v>2.34</v>
@@ -7626,7 +7626,7 @@
         <v>1.129</v>
       </c>
       <c r="G90" t="n">
-        <v>1.21472881355932</v>
+        <v>1.21472033898305</v>
       </c>
       <c r="H90" t="n">
         <v>2.34</v>
@@ -7707,7 +7707,7 @@
         <v>1.5</v>
       </c>
       <c r="G91" t="n">
-        <v>1.80470197296053</v>
+        <v>1.80457529535788</v>
       </c>
       <c r="H91" t="n">
         <v>4.35</v>
@@ -7788,7 +7788,7 @@
         <v>0.01175</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0146170248243111</v>
+        <v>0.01461726560936</v>
       </c>
       <c r="H92" t="n">
         <v>0.096</v>
@@ -7869,7 +7869,7 @@
         <v>0.01175</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0146170248243111</v>
+        <v>0.01461726560936</v>
       </c>
       <c r="H93" t="n">
         <v>0.096</v>
@@ -7950,7 +7950,7 @@
         <v>120</v>
       </c>
       <c r="G94" t="n">
-        <v>383.161215403129</v>
+        <v>383.161779625464</v>
       </c>
       <c r="H94" t="n">
         <v>6100</v>
@@ -8035,7 +8035,7 @@
         <v>120</v>
       </c>
       <c r="G95" t="n">
-        <v>383.161215403129</v>
+        <v>383.161779625464</v>
       </c>
       <c r="H95" t="n">
         <v>6100</v>
@@ -8120,7 +8120,7 @@
         <v>120</v>
       </c>
       <c r="G96" t="n">
-        <v>383.161215403129</v>
+        <v>383.161779625464</v>
       </c>
       <c r="H96" t="n">
         <v>6100</v>
@@ -8205,7 +8205,7 @@
         <v>120</v>
       </c>
       <c r="G97" t="n">
-        <v>383.161215403129</v>
+        <v>383.161779625464</v>
       </c>
       <c r="H97" t="n">
         <v>6100</v>
@@ -8367,7 +8367,7 @@
         <v>0.00754</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0111863968104253</v>
+        <v>0.0111802180983825</v>
       </c>
       <c r="H99" t="n">
         <v>0.07531521099348359</v>
@@ -8448,7 +8448,7 @@
         <v>0.00754</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0111863968104253</v>
+        <v>0.0111802180983825</v>
       </c>
       <c r="H100" t="n">
         <v>0.07531521099348359</v>
@@ -8684,10 +8684,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.0315</v>
+        <v>1.03125</v>
       </c>
       <c r="G103" t="n">
-        <v>1.17405</v>
+        <v>1.17400833333333</v>
       </c>
       <c r="H103" t="n">
         <v>2.34</v>
@@ -8761,10 +8761,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.0315</v>
+        <v>1.03125</v>
       </c>
       <c r="G104" t="n">
-        <v>1.17405</v>
+        <v>1.17400833333333</v>
       </c>
       <c r="H104" t="n">
         <v>2.34</v>
@@ -8845,7 +8845,7 @@
         <v>1.335</v>
       </c>
       <c r="G105" t="n">
-        <v>1.74352529294056</v>
+        <v>1.74339182903777</v>
       </c>
       <c r="H105" t="n">
         <v>4.3</v>
@@ -8926,7 +8926,7 @@
         <v>0.011</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0140367011127357</v>
+        <v>0.0140383796914236</v>
       </c>
       <c r="H106" t="n">
         <v>0.096</v>
@@ -9007,7 +9007,7 @@
         <v>0.011</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0140367011127357</v>
+        <v>0.0140383796914236</v>
       </c>
       <c r="H107" t="n">
         <v>0.096</v>
@@ -9088,7 +9088,7 @@
         <v>120</v>
       </c>
       <c r="G108" t="n">
-        <v>381.344548736462</v>
+        <v>381.345112958798</v>
       </c>
       <c r="H108" t="n">
         <v>6100</v>
@@ -9173,7 +9173,7 @@
         <v>120</v>
       </c>
       <c r="G109" t="n">
-        <v>381.344548736462</v>
+        <v>381.345112958798</v>
       </c>
       <c r="H109" t="n">
         <v>6100</v>
@@ -9258,7 +9258,7 @@
         <v>120</v>
       </c>
       <c r="G110" t="n">
-        <v>381.344548736462</v>
+        <v>381.345112958798</v>
       </c>
       <c r="H110" t="n">
         <v>6100</v>
@@ -9343,7 +9343,7 @@
         <v>120</v>
       </c>
       <c r="G111" t="n">
-        <v>381.344548736462</v>
+        <v>381.345112958798</v>
       </c>
       <c r="H111" t="n">
         <v>6100</v>
@@ -9505,7 +9505,7 @@
         <v>0.00699</v>
       </c>
       <c r="G113" t="n">
-        <v>0.008373345699656001</v>
+        <v>0.008359268610717299</v>
       </c>
       <c r="H113" t="n">
         <v>0.0678335750560467</v>
@@ -9586,7 +9586,7 @@
         <v>0.00699</v>
       </c>
       <c r="G114" t="n">
-        <v>0.008373345699656001</v>
+        <v>0.008359268610717299</v>
       </c>
       <c r="H114" t="n">
         <v>0.0678335750560467</v>
@@ -9825,18 +9825,18 @@
         <v>1.013</v>
       </c>
       <c r="G117" t="n">
-        <v>1.07108333333333</v>
+        <v>1.07103</v>
       </c>
       <c r="H117" t="n">
         <v>2.34</v>
       </c>
       <c r="I117" t="n">
-        <v>1.7915</v>
+        <v>1.79125</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.959</v>
+        <v>0.95875</v>
       </c>
       <c r="M117" t="n">
         <v>1.561</v>
@@ -9902,18 +9902,18 @@
         <v>1.013</v>
       </c>
       <c r="G118" t="n">
-        <v>1.07108333333333</v>
+        <v>1.07103</v>
       </c>
       <c r="H118" t="n">
         <v>2.34</v>
       </c>
       <c r="I118" t="n">
-        <v>1.7915</v>
+        <v>1.79125</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.959</v>
+        <v>0.95875</v>
       </c>
       <c r="M118" t="n">
         <v>1.561</v>
@@ -9983,7 +9983,7 @@
         <v>1.5</v>
       </c>
       <c r="G119" t="n">
-        <v>1.72536862490678</v>
+        <v>1.7249257997276</v>
       </c>
       <c r="H119" t="n">
         <v>4.3</v>
@@ -10064,7 +10064,7 @@
         <v>0.01</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0133067988315557</v>
+        <v>0.013310468947132</v>
       </c>
       <c r="H120" t="n">
         <v>0.096</v>
@@ -10145,7 +10145,7 @@
         <v>0.01</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0133067988315557</v>
+        <v>0.013310468947132</v>
       </c>
       <c r="H121" t="n">
         <v>0.096</v>
@@ -10226,7 +10226,7 @@
         <v>105</v>
       </c>
       <c r="G122" t="n">
-        <v>304.294548736462</v>
+        <v>304.295112958798</v>
       </c>
       <c r="H122" t="n">
         <v>6100</v>
@@ -10311,7 +10311,7 @@
         <v>105</v>
       </c>
       <c r="G123" t="n">
-        <v>304.294548736462</v>
+        <v>304.295112958798</v>
       </c>
       <c r="H123" t="n">
         <v>6100</v>
@@ -10396,7 +10396,7 @@
         <v>105</v>
       </c>
       <c r="G124" t="n">
-        <v>304.294548736462</v>
+        <v>304.295112958798</v>
       </c>
       <c r="H124" t="n">
         <v>6100</v>
@@ -10481,7 +10481,7 @@
         <v>105</v>
       </c>
       <c r="G125" t="n">
-        <v>304.294548736462</v>
+        <v>304.295112958798</v>
       </c>
       <c r="H125" t="n">
         <v>6100</v>
@@ -10643,7 +10643,7 @@
         <v>0.00637</v>
       </c>
       <c r="G127" t="n">
-        <v>0.009035606160813101</v>
+        <v>0.0090196042160065</v>
       </c>
       <c r="H127" t="n">
         <v>0.0678335750560467</v>
@@ -10654,7 +10654,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00778</v>
+        <v>0.00767</v>
       </c>
       <c r="M127" t="n">
         <v>0.0124</v>
@@ -10724,7 +10724,7 @@
         <v>0.00637</v>
       </c>
       <c r="G128" t="n">
-        <v>0.009035606160813101</v>
+        <v>0.0090196042160065</v>
       </c>
       <c r="H128" t="n">
         <v>0.0678335750560467</v>
@@ -10735,7 +10735,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00778</v>
+        <v>0.00767</v>
       </c>
       <c r="M128" t="n">
         <v>0.0124</v>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.007</v>
+        <v>1.00675</v>
       </c>
       <c r="G131" t="n">
-        <v>1.02766666666667</v>
+        <v>1.02763833333333</v>
       </c>
       <c r="H131" t="n">
         <v>2.34</v>
@@ -10974,7 +10974,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.872</v>
+        <v>0.87225</v>
       </c>
       <c r="M131" t="n">
         <v>1.4379</v>
@@ -11037,10 +11037,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.007</v>
+        <v>1.00675</v>
       </c>
       <c r="G132" t="n">
-        <v>1.02766666666667</v>
+        <v>1.02763833333333</v>
       </c>
       <c r="H132" t="n">
         <v>2.34</v>
@@ -11051,7 +11051,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.872</v>
+        <v>0.87225</v>
       </c>
       <c r="M132" t="n">
         <v>1.4379</v>
@@ -11275,7 +11275,7 @@
         <v>1.925</v>
       </c>
       <c r="G135" t="n">
-        <v>2.08090568748443</v>
+        <v>2.10137037529886</v>
       </c>
       <c r="H135" t="n">
         <v>6</v>
@@ -11289,10 +11289,10 @@
         <v>2.1</v>
       </c>
       <c r="M135" t="n">
-        <v>3.1456</v>
+        <v>3.296</v>
       </c>
       <c r="N135" t="n">
-        <v>4.136</v>
+        <v>4.16313</v>
       </c>
       <c r="O135" t="n">
         <v>1842795</v>
@@ -11356,7 +11356,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>0.009034709280646201</v>
+        <v>0.009039556733682799</v>
       </c>
       <c r="H136" t="n">
         <v>0.02</v>
@@ -11437,7 +11437,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>0.009034709280646201</v>
+        <v>0.009039556733682799</v>
       </c>
       <c r="H137" t="n">
         <v>0.02</v>
@@ -11518,7 +11518,7 @@
         <v>93</v>
       </c>
       <c r="G138" t="n">
-        <v>272.811215403129</v>
+        <v>272.811779625464</v>
       </c>
       <c r="H138" t="n">
         <v>6100</v>
@@ -11603,7 +11603,7 @@
         <v>93</v>
       </c>
       <c r="G139" t="n">
-        <v>272.811215403129</v>
+        <v>272.811779625464</v>
       </c>
       <c r="H139" t="n">
         <v>6100</v>
@@ -11688,7 +11688,7 @@
         <v>93</v>
       </c>
       <c r="G140" t="n">
-        <v>272.811215403129</v>
+        <v>272.811779625464</v>
       </c>
       <c r="H140" t="n">
         <v>6100</v>
@@ -11773,7 +11773,7 @@
         <v>93</v>
       </c>
       <c r="G141" t="n">
-        <v>272.811215403129</v>
+        <v>272.811779625464</v>
       </c>
       <c r="H141" t="n">
         <v>6100</v>
@@ -11932,10 +11932,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.00576</v>
+        <v>0.00573</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0088190529170032</v>
+        <v>0.0088015579637322</v>
       </c>
       <c r="H143" t="n">
         <v>0.0678335750560467</v>
@@ -11946,7 +11946,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00591</v>
+        <v>0.00582</v>
       </c>
       <c r="M143" t="n">
         <v>0.01076</v>
@@ -12013,10 +12013,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.00576</v>
+        <v>0.00573</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0088190529170032</v>
+        <v>0.0088015579637322</v>
       </c>
       <c r="H144" t="n">
         <v>0.0678335750560467</v>
@@ -12027,7 +12027,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00591</v>
+        <v>0.00582</v>
       </c>
       <c r="M144" t="n">
         <v>0.01076</v>
@@ -12255,7 +12255,7 @@
         <v>0.9375</v>
       </c>
       <c r="G147" t="n">
-        <v>0.953733333333333</v>
+        <v>0.953688333333333</v>
       </c>
       <c r="H147" t="n">
         <v>1.836</v>
@@ -12269,7 +12269,7 @@
         <v>0.724</v>
       </c>
       <c r="M147" t="n">
-        <v>1.3186</v>
+        <v>1.31845</v>
       </c>
       <c r="N147" t="n">
         <v>1.5283</v>
@@ -12332,7 +12332,7 @@
         <v>0.9375</v>
       </c>
       <c r="G148" t="n">
-        <v>0.953733333333333</v>
+        <v>0.953688333333333</v>
       </c>
       <c r="H148" t="n">
         <v>1.836</v>
@@ -12346,7 +12346,7 @@
         <v>0.724</v>
       </c>
       <c r="M148" t="n">
-        <v>1.3186</v>
+        <v>1.31845</v>
       </c>
       <c r="N148" t="n">
         <v>1.5283</v>
@@ -12567,7 +12567,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>2.06686617215395</v>
+        <v>2.08771698615355</v>
       </c>
       <c r="H151" t="n">
         <v>6</v>
@@ -12581,10 +12581,10 @@
         <v>2.3</v>
       </c>
       <c r="M151" t="n">
-        <v>3.09985</v>
+        <v>3.347</v>
       </c>
       <c r="N151" t="n">
-        <v>4.078</v>
+        <v>4.17648</v>
       </c>
       <c r="O151" t="n">
         <v>1842795</v>
@@ -12648,7 +12648,7 @@
         <v>0.008</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0077902118466449</v>
+        <v>0.0077977613483565</v>
       </c>
       <c r="H152" t="n">
         <v>0.02</v>
@@ -12729,7 +12729,7 @@
         <v>0.008</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0077902118466449</v>
+        <v>0.0077977613483565</v>
       </c>
       <c r="H153" t="n">
         <v>0.02</v>
@@ -12810,7 +12810,7 @@
         <v>85</v>
       </c>
       <c r="G154" t="n">
-        <v>304.997866631034</v>
+        <v>304.998697455928</v>
       </c>
       <c r="H154" t="n">
         <v>6100</v>
@@ -12895,7 +12895,7 @@
         <v>85</v>
       </c>
       <c r="G155" t="n">
-        <v>304.997866631034</v>
+        <v>304.998697455928</v>
       </c>
       <c r="H155" t="n">
         <v>6100</v>
@@ -12980,7 +12980,7 @@
         <v>85</v>
       </c>
       <c r="G156" t="n">
-        <v>304.997866631034</v>
+        <v>304.998697455928</v>
       </c>
       <c r="H156" t="n">
         <v>6100</v>
@@ -13065,7 +13065,7 @@
         <v>85</v>
       </c>
       <c r="G157" t="n">
-        <v>304.997866631034</v>
+        <v>304.998697455928</v>
       </c>
       <c r="H157" t="n">
         <v>6100</v>
@@ -13227,7 +13227,7 @@
         <v>0.00554</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0090863473684517</v>
+        <v>0.0090696343658384</v>
       </c>
       <c r="H159" t="n">
         <v>0.0678335750560467</v>
@@ -13238,7 +13238,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00576</v>
+        <v>0.00573</v>
       </c>
       <c r="M159" t="n">
         <v>0.009379999999999999</v>
@@ -13308,7 +13308,7 @@
         <v>0.00554</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0090863473684517</v>
+        <v>0.0090696343658384</v>
       </c>
       <c r="H160" t="n">
         <v>0.0678335750560467</v>
@@ -13319,7 +13319,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00576</v>
+        <v>0.00573</v>
       </c>
       <c r="M160" t="n">
         <v>0.009379999999999999</v>
@@ -13544,10 +13544,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.9155</v>
+        <v>0.915</v>
       </c>
       <c r="G163" t="n">
-        <v>0.922766666666667</v>
+        <v>0.922721666666667</v>
       </c>
       <c r="H163" t="n">
         <v>1.836</v>
@@ -13561,7 +13561,7 @@
         <v>0.786</v>
       </c>
       <c r="M163" t="n">
-        <v>1.3186</v>
+        <v>1.31845</v>
       </c>
       <c r="N163" t="n">
         <v>1.4391</v>
@@ -13621,10 +13621,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.9155</v>
+        <v>0.915</v>
       </c>
       <c r="G164" t="n">
-        <v>0.922766666666667</v>
+        <v>0.922721666666667</v>
       </c>
       <c r="H164" t="n">
         <v>1.836</v>
@@ -13638,7 +13638,7 @@
         <v>0.786</v>
       </c>
       <c r="M164" t="n">
-        <v>1.3186</v>
+        <v>1.31845</v>
       </c>
       <c r="N164" t="n">
         <v>1.4391</v>
@@ -14013,13 +14013,13 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>2.09743501332385</v>
+        <v>2.11803810814858</v>
       </c>
       <c r="H169" t="n">
         <v>6</v>
       </c>
       <c r="I169" t="n">
-        <v>4.8</v>
+        <v>4.82662</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -14027,10 +14027,10 @@
         <v>2.1</v>
       </c>
       <c r="M169" t="n">
-        <v>3.03447</v>
+        <v>3.196</v>
       </c>
       <c r="N169" t="n">
-        <v>4</v>
+        <v>4.02395</v>
       </c>
       <c r="O169" t="n">
         <v>1842795</v>
@@ -14094,7 +14094,7 @@
         <v>0.007</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0071070163870861</v>
+        <v>0.007116652603621</v>
       </c>
       <c r="H170" t="n">
         <v>0.02</v>
@@ -14175,7 +14175,7 @@
         <v>0.007</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0071070163870861</v>
+        <v>0.007116652603621</v>
       </c>
       <c r="H171" t="n">
         <v>0.02</v>
@@ -14673,7 +14673,7 @@
         <v>0.00589</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0133085946020455</v>
+        <v>0.0132961710929528</v>
       </c>
       <c r="H177" t="n">
         <v>0.0724829761250213</v>
@@ -14684,7 +14684,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>0.00686</v>
+        <v>0.00675</v>
       </c>
       <c r="M177" t="n">
         <v>0.01992</v>
@@ -14754,7 +14754,7 @@
         <v>0.00589</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0133085946020455</v>
+        <v>0.0132961710929528</v>
       </c>
       <c r="H178" t="n">
         <v>0.0724829761250213</v>
@@ -14765,7 +14765,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>0.00686</v>
+        <v>0.00675</v>
       </c>
       <c r="M178" t="n">
         <v>0.01992</v>
@@ -14990,10 +14990,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.915</v>
+        <v>0.91475</v>
       </c>
       <c r="G181" t="n">
-        <v>0.926516666666667</v>
+        <v>0.926505</v>
       </c>
       <c r="H181" t="n">
         <v>1.836</v>
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.915</v>
+        <v>0.91475</v>
       </c>
       <c r="G182" t="n">
-        <v>0.926516666666667</v>
+        <v>0.926505</v>
       </c>
       <c r="H182" t="n">
         <v>1.836</v>
@@ -15301,7 +15301,7 @@
         <v>0.0175</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0301686562295789</v>
+        <v>0.0301635472211088</v>
       </c>
       <c r="H185" t="n">
         <v>0.445</v>
@@ -15378,7 +15378,7 @@
         <v>0.0175</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0301686562295789</v>
+        <v>0.0301635472211088</v>
       </c>
       <c r="H186" t="n">
         <v>0.445</v>
@@ -15540,13 +15540,13 @@
         <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>2.29431516271141</v>
+        <v>2.35597318437713</v>
       </c>
       <c r="H188" t="n">
-        <v>6</v>
+        <v>6.81641366947292</v>
       </c>
       <c r="I188" t="n">
-        <v>5.195</v>
+        <v>5.43</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15554,10 +15554,10 @@
         <v>2.5</v>
       </c>
       <c r="M188" t="n">
-        <v>3.481</v>
+        <v>3.824</v>
       </c>
       <c r="N188" t="n">
-        <v>4.96487</v>
+        <v>5</v>
       </c>
       <c r="O188" t="n">
         <v>1842795</v>
@@ -15621,7 +15621,7 @@
         <v>0.0075</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0071453893291502</v>
+        <v>0.0071544211104224</v>
       </c>
       <c r="H189" t="n">
         <v>0.016</v>
@@ -15702,7 +15702,7 @@
         <v>0.0075</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0071453893291502</v>
+        <v>0.0071544211104224</v>
       </c>
       <c r="H190" t="n">
         <v>0.016</v>
@@ -16200,7 +16200,7 @@
         <v>0.00589</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0125282302395773</v>
+        <v>0.0125238389781753</v>
       </c>
       <c r="H196" t="n">
         <v>0.0724829761250213</v>
@@ -16281,7 +16281,7 @@
         <v>0.00589</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0125282302395773</v>
+        <v>0.0125238389781753</v>
       </c>
       <c r="H197" t="n">
         <v>0.0724829761250213</v>
@@ -16520,7 +16520,7 @@
         <v>0.894</v>
       </c>
       <c r="G200" t="n">
-        <v>0.876683333333333</v>
+        <v>0.876696666666667</v>
       </c>
       <c r="H200" t="n">
         <v>1.836</v>
@@ -16531,7 +16531,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>0.6645</v>
+        <v>0.66475</v>
       </c>
       <c r="M200" t="n">
         <v>1.189</v>
@@ -16597,7 +16597,7 @@
         <v>0.894</v>
       </c>
       <c r="G201" t="n">
-        <v>0.876683333333333</v>
+        <v>0.876696666666667</v>
       </c>
       <c r="H201" t="n">
         <v>1.836</v>
@@ -16608,7 +16608,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.6645</v>
+        <v>0.66475</v>
       </c>
       <c r="M201" t="n">
         <v>1.189</v>
@@ -16828,7 +16828,7 @@
         <v>0.018</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0302186562295789</v>
+        <v>0.0302135472211088</v>
       </c>
       <c r="H204" t="n">
         <v>0.445</v>
@@ -16905,7 +16905,7 @@
         <v>0.018</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0302186562295789</v>
+        <v>0.0302135472211088</v>
       </c>
       <c r="H205" t="n">
         <v>0.445</v>
@@ -17144,13 +17144,13 @@
         <v>2.35</v>
       </c>
       <c r="G208" t="n">
-        <v>2.46908958437454</v>
+        <v>2.53104377106303</v>
       </c>
       <c r="H208" t="n">
-        <v>6</v>
+        <v>6.81641366947292</v>
       </c>
       <c r="I208" t="n">
-        <v>5.195</v>
+        <v>5.43</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17158,10 +17158,10 @@
         <v>2.5</v>
       </c>
       <c r="M208" t="n">
-        <v>3.862</v>
+        <v>3.9</v>
       </c>
       <c r="N208" t="n">
-        <v>4.96487</v>
+        <v>5</v>
       </c>
       <c r="O208" t="n">
         <v>1842795</v>
@@ -17225,7 +17225,7 @@
         <v>0.0075</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0068752916103302</v>
+        <v>0.006882331854714</v>
       </c>
       <c r="H209" t="n">
         <v>0.013</v>
@@ -17306,7 +17306,7 @@
         <v>0.0075</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0068752916103302</v>
+        <v>0.006882331854714</v>
       </c>
       <c r="H210" t="n">
         <v>0.013</v>
@@ -17804,7 +17804,7 @@
         <v>0.00551</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0111586543978725</v>
+        <v>0.0111565057121268</v>
       </c>
       <c r="H216" t="n">
         <v>0.0724829761250213</v>
@@ -17885,7 +17885,7 @@
         <v>0.00551</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0111586543978725</v>
+        <v>0.0111565057121268</v>
       </c>
       <c r="H217" t="n">
         <v>0.0724829761250213</v>
@@ -18201,7 +18201,7 @@
         <v>0.828</v>
       </c>
       <c r="G221" t="n">
-        <v>0.832516666666667</v>
+        <v>0.832525</v>
       </c>
       <c r="H221" t="n">
         <v>1.668</v>
@@ -18278,7 +18278,7 @@
         <v>0.828</v>
       </c>
       <c r="G222" t="n">
-        <v>0.832516666666667</v>
+        <v>0.832525</v>
       </c>
       <c r="H222" t="n">
         <v>1.668</v>
@@ -18509,7 +18509,7 @@
         <v>0.016</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0213853228962456</v>
+        <v>0.0213802138877754</v>
       </c>
       <c r="H225" t="n">
         <v>0.142</v>
@@ -18586,7 +18586,7 @@
         <v>0.016</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0213853228962456</v>
+        <v>0.0213802138877754</v>
       </c>
       <c r="H226" t="n">
         <v>0.142</v>
@@ -18825,13 +18825,13 @@
         <v>2.35</v>
       </c>
       <c r="G229" t="n">
-        <v>2.42434198851409</v>
+        <v>2.46546495917719</v>
       </c>
       <c r="H229" t="n">
-        <v>5.52</v>
+        <v>6.81641366947292</v>
       </c>
       <c r="I229" t="n">
-        <v>4.92</v>
+        <v>5.18</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18842,7 +18842,7 @@
         <v>3.6532</v>
       </c>
       <c r="N229" t="n">
-        <v>4.35645</v>
+        <v>4.688</v>
       </c>
       <c r="O229" t="n">
         <v>1842795</v>
@@ -18906,7 +18906,7 @@
         <v>0.007</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0067140478279064</v>
+        <v>0.0067199107348298</v>
       </c>
       <c r="H230" t="n">
         <v>0.014</v>
@@ -18987,7 +18987,7 @@
         <v>0.007</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0067140478279064</v>
+        <v>0.0067199107348298</v>
       </c>
       <c r="H231" t="n">
         <v>0.014</v>
@@ -19485,7 +19485,7 @@
         <v>0.00493</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0099891727062906</v>
+        <v>0.009982223342186699</v>
       </c>
       <c r="H237" t="n">
         <v>0.0724829761250213</v>
@@ -19566,7 +19566,7 @@
         <v>0.00493</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0099891727062906</v>
+        <v>0.009982223342186699</v>
       </c>
       <c r="H238" t="n">
         <v>0.0724829761250213</v>
@@ -19879,21 +19879,21 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0.8804999999999999</v>
+        <v>0.88065</v>
       </c>
       <c r="G242" t="n">
-        <v>0.855116666666667</v>
+        <v>0.855126666666667</v>
       </c>
       <c r="H242" t="n">
         <v>1.668</v>
       </c>
       <c r="I242" t="n">
-        <v>1.4865</v>
+        <v>1.4863</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>0.543</v>
+        <v>0.5432</v>
       </c>
       <c r="M242" t="n">
         <v>1.189</v>
@@ -19956,21 +19956,21 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0.8804999999999999</v>
+        <v>0.88065</v>
       </c>
       <c r="G243" t="n">
-        <v>0.855116666666667</v>
+        <v>0.855126666666667</v>
       </c>
       <c r="H243" t="n">
         <v>1.668</v>
       </c>
       <c r="I243" t="n">
-        <v>1.4865</v>
+        <v>1.4863</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
-        <v>0.543</v>
+        <v>0.5432</v>
       </c>
       <c r="M243" t="n">
         <v>1.189</v>
@@ -20190,7 +20190,7 @@
         <v>0.015</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0207686562295789</v>
+        <v>0.0207635472211088</v>
       </c>
       <c r="H246" t="n">
         <v>0.142</v>
@@ -20267,7 +20267,7 @@
         <v>0.015</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0207686562295789</v>
+        <v>0.0207635472211088</v>
       </c>
       <c r="H247" t="n">
         <v>0.142</v>
@@ -20506,13 +20506,13 @@
         <v>2.9</v>
       </c>
       <c r="G250" t="n">
-        <v>2.77564127684436</v>
+        <v>2.81606724800469</v>
       </c>
       <c r="H250" t="n">
-        <v>6.08</v>
+        <v>6.81641366947292</v>
       </c>
       <c r="I250" t="n">
-        <v>5.219</v>
+        <v>5.421</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -20523,7 +20523,7 @@
         <v>3.9</v>
       </c>
       <c r="N250" t="n">
-        <v>4.956</v>
+        <v>5.0936</v>
       </c>
       <c r="O250" t="n">
         <v>1842795</v>
@@ -20587,7 +20587,7 @@
         <v>0.007</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0067727165124681</v>
+        <v>0.0067785519596776</v>
       </c>
       <c r="H251" t="n">
         <v>0.014</v>
@@ -20668,7 +20668,7 @@
         <v>0.007</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0067727165124681</v>
+        <v>0.0067785519596776</v>
       </c>
       <c r="H252" t="n">
         <v>0.014</v>
@@ -21163,10 +21163,10 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>0.00374</v>
+        <v>0.00364</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0092803611923401</v>
+        <v>0.009251331555831001</v>
       </c>
       <c r="H258" t="n">
         <v>0.0724829761250213</v>
@@ -21177,7 +21177,7 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
-        <v>0.00376</v>
+        <v>0.00371</v>
       </c>
       <c r="M258" t="n">
         <v>0.0129</v>
@@ -21244,10 +21244,10 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0.00374</v>
+        <v>0.00364</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0092803611923401</v>
+        <v>0.009251331555831001</v>
       </c>
       <c r="H259" t="n">
         <v>0.0724829761250213</v>
@@ -21258,7 +21258,7 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
-        <v>0.00376</v>
+        <v>0.00371</v>
       </c>
       <c r="M259" t="n">
         <v>0.0129</v>
@@ -21563,21 +21563,21 @@
         <v>0.894</v>
       </c>
       <c r="G263" t="n">
-        <v>0.884266666666667</v>
+        <v>0.884276666666667</v>
       </c>
       <c r="H263" t="n">
         <v>1.695</v>
       </c>
       <c r="I263" t="n">
-        <v>1.557</v>
+        <v>1.5569</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
-        <v>0.569</v>
+        <v>0.5692</v>
       </c>
       <c r="M263" t="n">
-        <v>1.2335</v>
+        <v>1.23341</v>
       </c>
       <c r="N263" t="n">
         <v>1.4532</v>
@@ -21640,21 +21640,21 @@
         <v>0.894</v>
       </c>
       <c r="G264" t="n">
-        <v>0.884266666666667</v>
+        <v>0.884276666666667</v>
       </c>
       <c r="H264" t="n">
         <v>1.695</v>
       </c>
       <c r="I264" t="n">
-        <v>1.557</v>
+        <v>1.5569</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
-        <v>0.569</v>
+        <v>0.5692</v>
       </c>
       <c r="M264" t="n">
-        <v>1.2335</v>
+        <v>1.23341</v>
       </c>
       <c r="N264" t="n">
         <v>1.4532</v>
@@ -21871,7 +21871,7 @@
         <v>0.015</v>
       </c>
       <c r="G267" t="n">
-        <v>0.0181519895629123</v>
+        <v>0.0181468805544421</v>
       </c>
       <c r="H267" t="n">
         <v>0.064</v>
@@ -21948,7 +21948,7 @@
         <v>0.015</v>
       </c>
       <c r="G268" t="n">
-        <v>0.0181519895629123</v>
+        <v>0.0181468805544421</v>
       </c>
       <c r="H268" t="n">
         <v>0.064</v>
@@ -22187,13 +22187,13 @@
         <v>2.9</v>
       </c>
       <c r="G271" t="n">
-        <v>2.82268281037004</v>
+        <v>2.88321645589435</v>
       </c>
       <c r="H271" t="n">
-        <v>6.08</v>
+        <v>6.81641366947292</v>
       </c>
       <c r="I271" t="n">
-        <v>5.219</v>
+        <v>5.421</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -22201,10 +22201,10 @@
         <v>3.15</v>
       </c>
       <c r="M271" t="n">
-        <v>3.947</v>
+        <v>4.094</v>
       </c>
       <c r="N271" t="n">
-        <v>4.956</v>
+        <v>5.0936</v>
       </c>
       <c r="O271" t="n">
         <v>1842795</v>
@@ -22268,7 +22268,7 @@
         <v>0.007</v>
       </c>
       <c r="G272" t="n">
-        <v>0.0071555538143824</v>
+        <v>0.0071590617617197</v>
       </c>
       <c r="H272" t="n">
         <v>0.014</v>
@@ -22349,7 +22349,7 @@
         <v>0.007</v>
       </c>
       <c r="G273" t="n">
-        <v>0.0071555538143824</v>
+        <v>0.0071590617617197</v>
       </c>
       <c r="H273" t="n">
         <v>0.014</v>
@@ -22844,10 +22844,10 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0.00275</v>
+        <v>0.00268</v>
       </c>
       <c r="G279" t="n">
-        <v>0.0049728140742868</v>
+        <v>0.0049317136753859</v>
       </c>
       <c r="H279" t="n">
         <v>0.0308485714047464</v>
@@ -22858,13 +22858,13 @@
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
-        <v>0.00286</v>
+        <v>0.00278</v>
       </c>
       <c r="M279" t="n">
-        <v>0.00747</v>
+        <v>0.00738</v>
       </c>
       <c r="N279" t="n">
-        <v>0.01287</v>
+        <v>0.0128</v>
       </c>
       <c r="O279" t="n">
         <v>1842795</v>
@@ -22925,10 +22925,10 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>0.00275</v>
+        <v>0.00268</v>
       </c>
       <c r="G280" t="n">
-        <v>0.0049728140742868</v>
+        <v>0.0049317136753859</v>
       </c>
       <c r="H280" t="n">
         <v>0.0308485714047464</v>
@@ -22939,13 +22939,13 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
-        <v>0.00286</v>
+        <v>0.00278</v>
       </c>
       <c r="M280" t="n">
-        <v>0.00747</v>
+        <v>0.00738</v>
       </c>
       <c r="N280" t="n">
-        <v>0.01287</v>
+        <v>0.0128</v>
       </c>
       <c r="O280" t="n">
         <v>1842795</v>
@@ -23244,18 +23244,18 @@
         <v>0.899</v>
       </c>
       <c r="G284" t="n">
-        <v>0.8757</v>
+        <v>0.87571</v>
       </c>
       <c r="H284" t="n">
         <v>1.695</v>
       </c>
       <c r="I284" t="n">
-        <v>1.5535</v>
+        <v>1.5533</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
-        <v>0.506</v>
+        <v>0.5058</v>
       </c>
       <c r="M284" t="n">
         <v>1.3115</v>
@@ -23321,18 +23321,18 @@
         <v>0.899</v>
       </c>
       <c r="G285" t="n">
-        <v>0.8757</v>
+        <v>0.87571</v>
       </c>
       <c r="H285" t="n">
         <v>1.695</v>
       </c>
       <c r="I285" t="n">
-        <v>1.5535</v>
+        <v>1.5533</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
-        <v>0.506</v>
+        <v>0.5058</v>
       </c>
       <c r="M285" t="n">
         <v>1.3115</v>
@@ -23868,7 +23868,7 @@
         <v>2.7</v>
       </c>
       <c r="G292" t="n">
-        <v>2.56406461452153</v>
+        <v>2.58388741064905</v>
       </c>
       <c r="H292" t="n">
         <v>6.08</v>
@@ -23882,10 +23882,10 @@
         <v>2.88</v>
       </c>
       <c r="M292" t="n">
-        <v>3.7658</v>
+        <v>3.84</v>
       </c>
       <c r="N292" t="n">
-        <v>4.668</v>
+        <v>4.7179</v>
       </c>
       <c r="O292" t="n">
         <v>1842795</v>
@@ -23949,7 +23949,7 @@
         <v>0.007</v>
       </c>
       <c r="G293" t="n">
-        <v>0.0073369728278382</v>
+        <v>0.0073436286900146</v>
       </c>
       <c r="H293" t="n">
         <v>0.018</v>
@@ -24030,7 +24030,7 @@
         <v>0.007</v>
       </c>
       <c r="G294" t="n">
-        <v>0.0073369728278382</v>
+        <v>0.0073436286900146</v>
       </c>
       <c r="H294" t="n">
         <v>0.018</v>
@@ -24525,10 +24525,10 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0.00305</v>
+        <v>0.00298</v>
       </c>
       <c r="G300" t="n">
-        <v>0.0048587721447322</v>
+        <v>0.0048020141347059</v>
       </c>
       <c r="H300" t="n">
         <v>0.0308485714047464</v>
@@ -24539,13 +24539,13 @@
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
-        <v>0.00374</v>
+        <v>0.00364</v>
       </c>
       <c r="M300" t="n">
-        <v>0.00619</v>
+        <v>0.00604</v>
       </c>
       <c r="N300" t="n">
-        <v>0.01241</v>
+        <v>0.0121</v>
       </c>
       <c r="O300" t="n">
         <v>1842795</v>
@@ -24606,10 +24606,10 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0.00305</v>
+        <v>0.00298</v>
       </c>
       <c r="G301" t="n">
-        <v>0.0048587721447322</v>
+        <v>0.0048020141347059</v>
       </c>
       <c r="H301" t="n">
         <v>0.0308485714047464</v>
@@ -24620,13 +24620,13 @@
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
-        <v>0.00374</v>
+        <v>0.00364</v>
       </c>
       <c r="M301" t="n">
-        <v>0.00619</v>
+        <v>0.00604</v>
       </c>
       <c r="N301" t="n">
-        <v>0.01241</v>
+        <v>0.0121</v>
       </c>
       <c r="O301" t="n">
         <v>1842795</v>
@@ -24925,18 +24925,18 @@
         <v>0.9</v>
       </c>
       <c r="G305" t="n">
-        <v>0.875683333333333</v>
+        <v>0.87568</v>
       </c>
       <c r="H305" t="n">
         <v>1.695</v>
       </c>
       <c r="I305" t="n">
-        <v>1.5535</v>
+        <v>1.5533</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
-        <v>0.506</v>
+        <v>0.5058</v>
       </c>
       <c r="M305" t="n">
         <v>1.3115</v>
@@ -25002,18 +25002,18 @@
         <v>0.9</v>
       </c>
       <c r="G306" t="n">
-        <v>0.875683333333333</v>
+        <v>0.87568</v>
       </c>
       <c r="H306" t="n">
         <v>1.695</v>
       </c>
       <c r="I306" t="n">
-        <v>1.5535</v>
+        <v>1.5533</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
-        <v>0.506</v>
+        <v>0.5058</v>
       </c>
       <c r="M306" t="n">
         <v>1.3115</v>
@@ -25549,7 +25549,7 @@
         <v>2.5325</v>
       </c>
       <c r="G313" t="n">
-        <v>2.45996353761284</v>
+        <v>2.4794559538049</v>
       </c>
       <c r="H313" t="n">
         <v>6.08</v>
@@ -25563,10 +25563,10 @@
         <v>2.96</v>
       </c>
       <c r="M313" t="n">
-        <v>3.603</v>
+        <v>3.728</v>
       </c>
       <c r="N313" t="n">
-        <v>4.62</v>
+        <v>4.68804</v>
       </c>
       <c r="O313" t="n">
         <v>1842795</v>
@@ -25630,7 +25630,7 @@
         <v>0.007</v>
       </c>
       <c r="G314" t="n">
-        <v>0.0072929055323295</v>
+        <v>0.0073040335275948</v>
       </c>
       <c r="H314" t="n">
         <v>0.018</v>
@@ -25711,7 +25711,7 @@
         <v>0.007</v>
       </c>
       <c r="G315" t="n">
-        <v>0.0072929055323295</v>
+        <v>0.0073040335275948</v>
       </c>
       <c r="H315" t="n">
         <v>0.018</v>
@@ -26206,13 +26206,13 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0.00374</v>
+        <v>0.00364</v>
       </c>
       <c r="G321" t="n">
-        <v>0.0061349660190168</v>
+        <v>0.0060398165881382</v>
       </c>
       <c r="H321" t="n">
-        <v>0.0398949124293062</v>
+        <v>0.0390033695984251</v>
       </c>
       <c r="I321" t="n">
         <v>0.02471</v>
@@ -26220,10 +26220,10 @@
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
-        <v>0.00422</v>
+        <v>0.00412</v>
       </c>
       <c r="M321" t="n">
-        <v>0.009050000000000001</v>
+        <v>0.00899</v>
       </c>
       <c r="N321" t="n">
         <v>0.01401</v>
@@ -26287,13 +26287,13 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0.00374</v>
+        <v>0.00364</v>
       </c>
       <c r="G322" t="n">
-        <v>0.0061349660190168</v>
+        <v>0.0060398165881382</v>
       </c>
       <c r="H322" t="n">
-        <v>0.0398949124293062</v>
+        <v>0.0390033695984251</v>
       </c>
       <c r="I322" t="n">
         <v>0.02471</v>
@@ -26301,10 +26301,10 @@
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
-        <v>0.00422</v>
+        <v>0.00412</v>
       </c>
       <c r="M322" t="n">
-        <v>0.009050000000000001</v>
+        <v>0.00899</v>
       </c>
       <c r="N322" t="n">
         <v>0.01401</v>
@@ -26606,7 +26606,7 @@
         <v>0.9</v>
       </c>
       <c r="G326" t="n">
-        <v>0.869366666666667</v>
+        <v>0.869351666666667</v>
       </c>
       <c r="H326" t="n">
         <v>1.695</v>
@@ -26683,7 +26683,7 @@
         <v>0.9</v>
       </c>
       <c r="G327" t="n">
-        <v>0.869366666666667</v>
+        <v>0.869351666666667</v>
       </c>
       <c r="H327" t="n">
         <v>1.695</v>
@@ -27230,13 +27230,13 @@
         <v>2.24</v>
       </c>
       <c r="G334" t="n">
-        <v>2.27708397128331</v>
+        <v>2.29946798614132</v>
       </c>
       <c r="H334" t="n">
         <v>6.08</v>
       </c>
       <c r="I334" t="n">
-        <v>4.71</v>
+        <v>4.74402</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -27244,10 +27244,10 @@
         <v>2.851</v>
       </c>
       <c r="M334" t="n">
-        <v>3.4792</v>
+        <v>3.5298</v>
       </c>
       <c r="N334" t="n">
-        <v>4.052</v>
+        <v>4.25897</v>
       </c>
       <c r="O334" t="n">
         <v>1842795</v>
@@ -27311,7 +27311,7 @@
         <v>0.006</v>
       </c>
       <c r="G335" t="n">
-        <v>0.0067046496938944</v>
+        <v>0.006715966299249</v>
       </c>
       <c r="H335" t="n">
         <v>0.018</v>
@@ -27322,7 +27322,7 @@
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
-        <v>0.00459</v>
+        <v>0.00462</v>
       </c>
       <c r="M335" t="n">
         <v>0.01</v>
@@ -27392,7 +27392,7 @@
         <v>0.006</v>
       </c>
       <c r="G336" t="n">
-        <v>0.0067046496938944</v>
+        <v>0.006715966299249</v>
       </c>
       <c r="H336" t="n">
         <v>0.018</v>
@@ -27403,7 +27403,7 @@
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
-        <v>0.00459</v>
+        <v>0.00462</v>
       </c>
       <c r="M336" t="n">
         <v>0.01</v>
@@ -27887,10 +27887,10 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0.00432</v>
+        <v>0.00426</v>
       </c>
       <c r="G342" t="n">
-        <v>0.0076393137886044</v>
+        <v>0.0075457522723412</v>
       </c>
       <c r="H342" t="n">
         <v>0.0627513356592628</v>
@@ -27901,10 +27901,10 @@
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
-        <v>0.00651</v>
+        <v>0.00636</v>
       </c>
       <c r="M342" t="n">
-        <v>0.01001</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="N342" t="n">
         <v>0.01692</v>
@@ -27968,10 +27968,10 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0.00432</v>
+        <v>0.00426</v>
       </c>
       <c r="G343" t="n">
-        <v>0.0076393137886044</v>
+        <v>0.0075457522723412</v>
       </c>
       <c r="H343" t="n">
         <v>0.0627513356592628</v>
@@ -27982,10 +27982,10 @@
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
-        <v>0.00651</v>
+        <v>0.00636</v>
       </c>
       <c r="M343" t="n">
-        <v>0.01001</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="N343" t="n">
         <v>0.01692</v>
@@ -28911,13 +28911,13 @@
         <v>1.6805</v>
       </c>
       <c r="G355" t="n">
-        <v>1.76727066256555</v>
+        <v>1.79306094055413</v>
       </c>
       <c r="H355" t="n">
-        <v>4.2</v>
+        <v>4.42680326548998</v>
       </c>
       <c r="I355" t="n">
-        <v>3.46</v>
+        <v>3.672</v>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -28928,7 +28928,7 @@
         <v>3.09104</v>
       </c>
       <c r="N355" t="n">
-        <v>3.3987</v>
+        <v>3.4337</v>
       </c>
       <c r="O355" t="n">
         <v>1842795</v>
@@ -28992,7 +28992,7 @@
         <v>0.006</v>
       </c>
       <c r="G356" t="n">
-        <v>0.0069105772356974</v>
+        <v>0.0069191739200747</v>
       </c>
       <c r="H356" t="n">
         <v>0.027</v>
@@ -29003,7 +29003,7 @@
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
-        <v>0.00459</v>
+        <v>0.00462</v>
       </c>
       <c r="M356" t="n">
         <v>0.01</v>
@@ -29073,7 +29073,7 @@
         <v>0.006</v>
       </c>
       <c r="G357" t="n">
-        <v>0.0069105772356974</v>
+        <v>0.0069191739200747</v>
       </c>
       <c r="H357" t="n">
         <v>0.027</v>
@@ -29084,7 +29084,7 @@
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
-        <v>0.00459</v>
+        <v>0.00462</v>
       </c>
       <c r="M357" t="n">
         <v>0.01</v>
@@ -29154,13 +29154,13 @@
         <v>200</v>
       </c>
       <c r="G358" t="n">
-        <v>1047.69290823421</v>
+        <v>1000.66399071228</v>
       </c>
       <c r="H358" t="n">
         <v>12000</v>
       </c>
       <c r="I358" t="n">
-        <v>5460</v>
+        <v>5176.8465</v>
       </c>
       <c r="J358" t="n">
         <v>27.1186440677966</v>
@@ -29239,13 +29239,13 @@
         <v>200</v>
       </c>
       <c r="G359" t="n">
-        <v>1047.69290823421</v>
+        <v>1000.66399071228</v>
       </c>
       <c r="H359" t="n">
         <v>12000</v>
       </c>
       <c r="I359" t="n">
-        <v>5460</v>
+        <v>5176.8465</v>
       </c>
       <c r="J359" t="n">
         <v>27.1186440677966</v>
@@ -29324,13 +29324,13 @@
         <v>200</v>
       </c>
       <c r="G360" t="n">
-        <v>1047.69290823421</v>
+        <v>1000.66399071228</v>
       </c>
       <c r="H360" t="n">
         <v>12000</v>
       </c>
       <c r="I360" t="n">
-        <v>5460</v>
+        <v>5176.8465</v>
       </c>
       <c r="J360" t="n">
         <v>27.1186440677966</v>
@@ -29409,13 +29409,13 @@
         <v>200</v>
       </c>
       <c r="G361" t="n">
-        <v>1047.69290823421</v>
+        <v>1000.66399071228</v>
       </c>
       <c r="H361" t="n">
         <v>12000</v>
       </c>
       <c r="I361" t="n">
-        <v>5460</v>
+        <v>5176.8465</v>
       </c>
       <c r="J361" t="n">
         <v>27.1186440677966</v>
@@ -29568,10 +29568,10 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>0.00422</v>
+        <v>0.00412</v>
       </c>
       <c r="G363" t="n">
-        <v>0.0074513261576143</v>
+        <v>0.007383539235259</v>
       </c>
       <c r="H363" t="n">
         <v>0.0627513356592628</v>
@@ -29582,10 +29582,10 @@
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
-        <v>0.00574</v>
+        <v>0.00561</v>
       </c>
       <c r="M363" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.00974</v>
       </c>
       <c r="N363" t="n">
         <v>0.01607</v>
@@ -29649,10 +29649,10 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>0.00422</v>
+        <v>0.00412</v>
       </c>
       <c r="G364" t="n">
-        <v>0.0074513261576143</v>
+        <v>0.007383539235259</v>
       </c>
       <c r="H364" t="n">
         <v>0.0627513356592628</v>
@@ -29663,10 +29663,10 @@
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
-        <v>0.00574</v>
+        <v>0.00561</v>
       </c>
       <c r="M364" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.00974</v>
       </c>
       <c r="N364" t="n">
         <v>0.01607</v>
@@ -29968,7 +29968,7 @@
         <v>0.74</v>
       </c>
       <c r="G368" t="n">
-        <v>0.760050847457627</v>
+        <v>0.760059322033898</v>
       </c>
       <c r="H368" t="n">
         <v>1.595</v>
@@ -30045,7 +30045,7 @@
         <v>0.74</v>
       </c>
       <c r="G369" t="n">
-        <v>0.760050847457627</v>
+        <v>0.760059322033898</v>
       </c>
       <c r="H369" t="n">
         <v>1.595</v>
@@ -30673,7 +30673,7 @@
         <v>0.006</v>
       </c>
       <c r="G377" t="n">
-        <v>0.0074529501170533</v>
+        <v>0.0074615468014306</v>
       </c>
       <c r="H377" t="n">
         <v>0.027</v>
@@ -30684,7 +30684,7 @@
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
-        <v>0.00459</v>
+        <v>0.00462</v>
       </c>
       <c r="M377" t="n">
         <v>0.011</v>
@@ -30754,7 +30754,7 @@
         <v>0.006</v>
       </c>
       <c r="G378" t="n">
-        <v>0.0074529501170533</v>
+        <v>0.0074615468014306</v>
       </c>
       <c r="H378" t="n">
         <v>0.027</v>
@@ -30765,7 +30765,7 @@
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
-        <v>0.00459</v>
+        <v>0.00462</v>
       </c>
       <c r="M378" t="n">
         <v>0.011</v>
@@ -30835,13 +30835,13 @@
         <v>220</v>
       </c>
       <c r="G379" t="n">
-        <v>1319.28612857319</v>
+        <v>1272.25721105126</v>
       </c>
       <c r="H379" t="n">
         <v>12000</v>
       </c>
       <c r="I379" t="n">
-        <v>8142.93487</v>
+        <v>6668.32895</v>
       </c>
       <c r="J379" t="n">
         <v>33.8983050847458</v>
@@ -30920,13 +30920,13 @@
         <v>220</v>
       </c>
       <c r="G380" t="n">
-        <v>1319.28612857319</v>
+        <v>1272.25721105126</v>
       </c>
       <c r="H380" t="n">
         <v>12000</v>
       </c>
       <c r="I380" t="n">
-        <v>8142.93487</v>
+        <v>6668.32895</v>
       </c>
       <c r="J380" t="n">
         <v>33.8983050847458</v>
@@ -31005,13 +31005,13 @@
         <v>220</v>
       </c>
       <c r="G381" t="n">
-        <v>1319.28612857319</v>
+        <v>1272.25721105126</v>
       </c>
       <c r="H381" t="n">
         <v>12000</v>
       </c>
       <c r="I381" t="n">
-        <v>8142.93487</v>
+        <v>6668.32895</v>
       </c>
       <c r="J381" t="n">
         <v>33.8983050847458</v>
@@ -31090,13 +31090,13 @@
         <v>220</v>
       </c>
       <c r="G382" t="n">
-        <v>1319.28612857319</v>
+        <v>1272.25721105126</v>
       </c>
       <c r="H382" t="n">
         <v>12000</v>
       </c>
       <c r="I382" t="n">
-        <v>8142.93487</v>
+        <v>6668.32895</v>
       </c>
       <c r="J382" t="n">
         <v>33.8983050847458</v>
@@ -31249,10 +31249,10 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0.00622</v>
+        <v>0.00608</v>
       </c>
       <c r="G384" t="n">
-        <v>0.0091498057334886</v>
+        <v>0.009096388392796801</v>
       </c>
       <c r="H384" t="n">
         <v>0.0627513356592628</v>
@@ -31263,7 +31263,7 @@
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
-        <v>0.00651</v>
+        <v>0.00636</v>
       </c>
       <c r="M384" t="n">
         <v>0.01404</v>
@@ -31330,10 +31330,10 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0.00622</v>
+        <v>0.00608</v>
       </c>
       <c r="G385" t="n">
-        <v>0.0091498057334886</v>
+        <v>0.009096388392796801</v>
       </c>
       <c r="H385" t="n">
         <v>0.0627513356592628</v>
@@ -31344,7 +31344,7 @@
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
-        <v>0.00651</v>
+        <v>0.00636</v>
       </c>
       <c r="M385" t="n">
         <v>0.01404</v>
@@ -31649,7 +31649,7 @@
         <v>0.765</v>
       </c>
       <c r="G389" t="n">
-        <v>0.766</v>
+        <v>0.766008474576271</v>
       </c>
       <c r="H389" t="n">
         <v>1.415</v>
@@ -31726,7 +31726,7 @@
         <v>0.765</v>
       </c>
       <c r="G390" t="n">
-        <v>0.766</v>
+        <v>0.766008474576271</v>
       </c>
       <c r="H390" t="n">
         <v>1.415</v>
@@ -32085,6 +32085,1687 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.4108</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0.4965</v>
+      </c>
+      <c r="N395" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O395" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P395" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="G396" t="n">
+        <v>57.224625</v>
+      </c>
+      <c r="H396" t="n">
+        <v>205</v>
+      </c>
+      <c r="I396" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M396" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="N396" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="O396" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P396" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1.64388888888889</v>
+      </c>
+      <c r="H397" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I397" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M397" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="N397" t="n">
+        <v>4.2442</v>
+      </c>
+      <c r="O397" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P397" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.0073038670733588</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0.01372</v>
+      </c>
+      <c r="O398" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P398" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.0073038670733588</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0.01372</v>
+      </c>
+      <c r="O399" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P399" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>210</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1203.07199055214</v>
+      </c>
+      <c r="H400" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I400" t="n">
+        <v>6315.90527</v>
+      </c>
+      <c r="J400" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K400" t="n">
+        <v>46.551724137931</v>
+      </c>
+      <c r="L400" t="n">
+        <v>282</v>
+      </c>
+      <c r="M400" t="n">
+        <v>1898.56</v>
+      </c>
+      <c r="N400" t="n">
+        <v>3700</v>
+      </c>
+      <c r="O400" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P400" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>210</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1203.07199055214</v>
+      </c>
+      <c r="H401" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I401" t="n">
+        <v>6315.90527</v>
+      </c>
+      <c r="J401" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K401" t="n">
+        <v>46.551724137931</v>
+      </c>
+      <c r="L401" t="n">
+        <v>282</v>
+      </c>
+      <c r="M401" t="n">
+        <v>1898.56</v>
+      </c>
+      <c r="N401" t="n">
+        <v>3700</v>
+      </c>
+      <c r="O401" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P401" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>210</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1203.07199055214</v>
+      </c>
+      <c r="H402" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I402" t="n">
+        <v>6315.90527</v>
+      </c>
+      <c r="J402" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K402" t="n">
+        <v>46.551724137931</v>
+      </c>
+      <c r="L402" t="n">
+        <v>282</v>
+      </c>
+      <c r="M402" t="n">
+        <v>1898.56</v>
+      </c>
+      <c r="N402" t="n">
+        <v>3700</v>
+      </c>
+      <c r="O402" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P402" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>210</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1203.07199055214</v>
+      </c>
+      <c r="H403" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I403" t="n">
+        <v>6315.90527</v>
+      </c>
+      <c r="J403" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K403" t="n">
+        <v>46.551724137931</v>
+      </c>
+      <c r="L403" t="n">
+        <v>282</v>
+      </c>
+      <c r="M403" t="n">
+        <v>1898.56</v>
+      </c>
+      <c r="N403" t="n">
+        <v>3700</v>
+      </c>
+      <c r="O403" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P403" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U403" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G404" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="H404" t="n">
+        <v>106</v>
+      </c>
+      <c r="I404" t="n">
+        <v>106</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M404" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="N404" t="n">
+        <v>106</v>
+      </c>
+      <c r="O404" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P404" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>0.00642</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.009990642870268501</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.0627513356592628</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.03568</v>
+      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>0.00636</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.02133</v>
+      </c>
+      <c r="O405" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P405" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U405" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>0.00642</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.009990642870268501</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.0627513356592628</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.03568</v>
+      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>0.00636</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.02133</v>
+      </c>
+      <c r="O406" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P406" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U406" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>0.7635</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.758327586206897</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="M407" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N407" t="n">
+        <v>1.3088</v>
+      </c>
+      <c r="O407" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P407" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>0.7635</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.758327586206897</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I408" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="M408" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N408" t="n">
+        <v>1.3088</v>
+      </c>
+      <c r="O408" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P408" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="G409" t="n">
+        <v>5.3934</v>
+      </c>
+      <c r="H409" t="n">
+        <v>7</v>
+      </c>
+      <c r="I409" t="n">
+        <v>7</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="M409" t="n">
+        <v>6.7725</v>
+      </c>
+      <c r="N409" t="n">
+        <v>7</v>
+      </c>
+      <c r="O409" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P409" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>0.7915</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.775439655172414</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="I410" t="n">
+        <v>1.3486</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="M410" t="n">
+        <v>1.12464</v>
+      </c>
+      <c r="N410" t="n">
+        <v>1.32154</v>
+      </c>
+      <c r="O410" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P410" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>0.7915</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.775439655172414</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="I411" t="n">
+        <v>1.3486</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="M411" t="n">
+        <v>1.12464</v>
+      </c>
+      <c r="N411" t="n">
+        <v>1.32154</v>
+      </c>
+      <c r="O411" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P411" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.952068965517241</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I412" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M412" t="n">
+        <v>1.2828</v>
+      </c>
+      <c r="N412" t="n">
+        <v>1.3844</v>
+      </c>
+      <c r="O412" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P412" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.952068965517241</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M413" t="n">
+        <v>1.2828</v>
+      </c>
+      <c r="N413" t="n">
+        <v>1.3844</v>
+      </c>
+      <c r="O413" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P413" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.0367931034482759</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0.06347999999999999</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0.11548</v>
+      </c>
+      <c r="O414" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P414" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.0367931034482759</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0.06347999999999999</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0.11548</v>
+      </c>
+      <c r="O415" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="P415" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
+++ b/state_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
@@ -11275,7 +11275,7 @@
         <v>1.925</v>
       </c>
       <c r="G135" t="n">
-        <v>2.10137037529886</v>
+        <v>2.08703216489027</v>
       </c>
       <c r="H135" t="n">
         <v>6</v>
@@ -11289,10 +11289,10 @@
         <v>2.1</v>
       </c>
       <c r="M135" t="n">
-        <v>3.296</v>
+        <v>3.25082</v>
       </c>
       <c r="N135" t="n">
-        <v>4.16313</v>
+        <v>4.136</v>
       </c>
       <c r="O135" t="n">
         <v>1842795</v>
@@ -12567,7 +12567,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>2.08771698615355</v>
+        <v>2.0731082434731</v>
       </c>
       <c r="H151" t="n">
         <v>6</v>
@@ -12581,10 +12581,10 @@
         <v>2.3</v>
       </c>
       <c r="M151" t="n">
-        <v>3.347</v>
+        <v>3.27782</v>
       </c>
       <c r="N151" t="n">
-        <v>4.17648</v>
+        <v>4.078</v>
       </c>
       <c r="O151" t="n">
         <v>1842795</v>
@@ -14013,13 +14013,13 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>2.11803810814858</v>
+        <v>2.10369989773999</v>
       </c>
       <c r="H169" t="n">
         <v>6</v>
       </c>
       <c r="I169" t="n">
-        <v>4.82662</v>
+        <v>4.8</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -14027,10 +14027,10 @@
         <v>2.1</v>
       </c>
       <c r="M169" t="n">
-        <v>3.196</v>
+        <v>3.18282</v>
       </c>
       <c r="N169" t="n">
-        <v>4.02395</v>
+        <v>4</v>
       </c>
       <c r="O169" t="n">
         <v>1842795</v>
@@ -15540,13 +15540,13 @@
         <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>2.35597318437713</v>
+        <v>2.29404027737256</v>
       </c>
       <c r="H188" t="n">
-        <v>6.81641366947292</v>
+        <v>6</v>
       </c>
       <c r="I188" t="n">
-        <v>5.43</v>
+        <v>5.195</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15554,10 +15554,10 @@
         <v>2.5</v>
       </c>
       <c r="M188" t="n">
-        <v>3.824</v>
+        <v>3.481</v>
       </c>
       <c r="N188" t="n">
-        <v>5</v>
+        <v>4.94363</v>
       </c>
       <c r="O188" t="n">
         <v>1842795</v>
@@ -17144,13 +17144,13 @@
         <v>2.35</v>
       </c>
       <c r="G208" t="n">
-        <v>2.53104377106303</v>
+        <v>2.46911086405847</v>
       </c>
       <c r="H208" t="n">
-        <v>6.81641366947292</v>
+        <v>6</v>
       </c>
       <c r="I208" t="n">
-        <v>5.43</v>
+        <v>5.195</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17158,10 +17158,10 @@
         <v>2.5</v>
       </c>
       <c r="M208" t="n">
-        <v>3.9</v>
+        <v>3.862</v>
       </c>
       <c r="N208" t="n">
-        <v>5</v>
+        <v>4.94363</v>
       </c>
       <c r="O208" t="n">
         <v>1842795</v>
@@ -18825,13 +18825,13 @@
         <v>2.35</v>
       </c>
       <c r="G229" t="n">
-        <v>2.46546495917719</v>
+        <v>2.41794922922552</v>
       </c>
       <c r="H229" t="n">
-        <v>6.81641366947292</v>
+        <v>5.52</v>
       </c>
       <c r="I229" t="n">
-        <v>5.18</v>
+        <v>4.92</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18842,7 +18842,7 @@
         <v>3.6532</v>
       </c>
       <c r="N229" t="n">
-        <v>4.688</v>
+        <v>4.05203</v>
       </c>
       <c r="O229" t="n">
         <v>1842795</v>
@@ -20506,13 +20506,13 @@
         <v>2.9</v>
       </c>
       <c r="G250" t="n">
-        <v>2.81606724800469</v>
+        <v>2.76935686940814</v>
       </c>
       <c r="H250" t="n">
-        <v>6.81641366947292</v>
+        <v>6.08</v>
       </c>
       <c r="I250" t="n">
-        <v>5.421</v>
+        <v>5.219</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -20523,7 +20523,7 @@
         <v>3.9</v>
       </c>
       <c r="N250" t="n">
-        <v>5.0936</v>
+        <v>4.956</v>
       </c>
       <c r="O250" t="n">
         <v>1842795</v>
@@ -22187,13 +22187,13 @@
         <v>2.9</v>
       </c>
       <c r="G271" t="n">
-        <v>2.88321645589435</v>
+        <v>2.81884493632688</v>
       </c>
       <c r="H271" t="n">
-        <v>6.81641366947292</v>
+        <v>6.08</v>
       </c>
       <c r="I271" t="n">
-        <v>5.421</v>
+        <v>5.219</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -22201,10 +22201,10 @@
         <v>3.15</v>
       </c>
       <c r="M271" t="n">
-        <v>4.094</v>
+        <v>3.947</v>
       </c>
       <c r="N271" t="n">
-        <v>5.0936</v>
+        <v>4.956</v>
       </c>
       <c r="O271" t="n">
         <v>1842795</v>
@@ -23868,7 +23868,7 @@
         <v>2.7</v>
       </c>
       <c r="G292" t="n">
-        <v>2.58388741064905</v>
+        <v>2.56622626967813</v>
       </c>
       <c r="H292" t="n">
         <v>6.08</v>
@@ -23882,10 +23882,10 @@
         <v>2.88</v>
       </c>
       <c r="M292" t="n">
-        <v>3.84</v>
+        <v>3.7658</v>
       </c>
       <c r="N292" t="n">
-        <v>4.7179</v>
+        <v>4.668</v>
       </c>
       <c r="O292" t="n">
         <v>1842795</v>
@@ -25549,7 +25549,7 @@
         <v>2.5325</v>
       </c>
       <c r="G313" t="n">
-        <v>2.4794559538049</v>
+        <v>2.46208916518349</v>
       </c>
       <c r="H313" t="n">
         <v>6.08</v>
@@ -25563,10 +25563,10 @@
         <v>2.96</v>
       </c>
       <c r="M313" t="n">
-        <v>3.728</v>
+        <v>3.603</v>
       </c>
       <c r="N313" t="n">
-        <v>4.68804</v>
+        <v>4.62</v>
       </c>
       <c r="O313" t="n">
         <v>1842795</v>
@@ -27230,13 +27230,13 @@
         <v>2.24</v>
       </c>
       <c r="G334" t="n">
-        <v>2.29946798614132</v>
+        <v>2.27980747072086</v>
       </c>
       <c r="H334" t="n">
         <v>6.08</v>
       </c>
       <c r="I334" t="n">
-        <v>4.74402</v>
+        <v>4.71</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -27244,10 +27244,10 @@
         <v>2.851</v>
       </c>
       <c r="M334" t="n">
-        <v>3.5298</v>
+        <v>3.4792</v>
       </c>
       <c r="N334" t="n">
-        <v>4.25897</v>
+        <v>4.052</v>
       </c>
       <c r="O334" t="n">
         <v>1842795</v>
@@ -28911,13 +28911,13 @@
         <v>1.6805</v>
       </c>
       <c r="G355" t="n">
-        <v>1.79306094055413</v>
+        <v>1.77040860756968</v>
       </c>
       <c r="H355" t="n">
-        <v>4.42680326548998</v>
+        <v>4.2</v>
       </c>
       <c r="I355" t="n">
-        <v>3.672</v>
+        <v>3.46</v>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -28928,7 +28928,7 @@
         <v>3.09104</v>
       </c>
       <c r="N355" t="n">
-        <v>3.4337</v>
+        <v>3.40136</v>
       </c>
       <c r="O355" t="n">
         <v>1842795</v>
@@ -29154,13 +29154,13 @@
         <v>200</v>
       </c>
       <c r="G358" t="n">
-        <v>1000.66399071228</v>
+        <v>1045.50863167757</v>
       </c>
       <c r="H358" t="n">
         <v>12000</v>
       </c>
       <c r="I358" t="n">
-        <v>5176.8465</v>
+        <v>5460</v>
       </c>
       <c r="J358" t="n">
         <v>27.1186440677966</v>
@@ -29239,13 +29239,13 @@
         <v>200</v>
       </c>
       <c r="G359" t="n">
-        <v>1000.66399071228</v>
+        <v>1045.50863167757</v>
       </c>
       <c r="H359" t="n">
         <v>12000</v>
       </c>
       <c r="I359" t="n">
-        <v>5176.8465</v>
+        <v>5460</v>
       </c>
       <c r="J359" t="n">
         <v>27.1186440677966</v>
@@ -29324,13 +29324,13 @@
         <v>200</v>
       </c>
       <c r="G360" t="n">
-        <v>1000.66399071228</v>
+        <v>1045.50863167757</v>
       </c>
       <c r="H360" t="n">
         <v>12000</v>
       </c>
       <c r="I360" t="n">
-        <v>5176.8465</v>
+        <v>5460</v>
       </c>
       <c r="J360" t="n">
         <v>27.1186440677966</v>
@@ -29409,13 +29409,13 @@
         <v>200</v>
       </c>
       <c r="G361" t="n">
-        <v>1000.66399071228</v>
+        <v>1045.50863167757</v>
       </c>
       <c r="H361" t="n">
         <v>12000</v>
       </c>
       <c r="I361" t="n">
-        <v>5176.8465</v>
+        <v>5460</v>
       </c>
       <c r="J361" t="n">
         <v>27.1186440677966</v>
@@ -30835,13 +30835,13 @@
         <v>220</v>
       </c>
       <c r="G379" t="n">
-        <v>1272.25721105126</v>
+        <v>1317.10185201656</v>
       </c>
       <c r="H379" t="n">
         <v>12000</v>
       </c>
       <c r="I379" t="n">
-        <v>6668.32895</v>
+        <v>8072.0551</v>
       </c>
       <c r="J379" t="n">
         <v>33.8983050847458</v>
@@ -30920,13 +30920,13 @@
         <v>220</v>
       </c>
       <c r="G380" t="n">
-        <v>1272.25721105126</v>
+        <v>1317.10185201656</v>
       </c>
       <c r="H380" t="n">
         <v>12000</v>
       </c>
       <c r="I380" t="n">
-        <v>6668.32895</v>
+        <v>8072.0551</v>
       </c>
       <c r="J380" t="n">
         <v>33.8983050847458</v>
@@ -31005,13 +31005,13 @@
         <v>220</v>
       </c>
       <c r="G381" t="n">
-        <v>1272.25721105126</v>
+        <v>1317.10185201656</v>
       </c>
       <c r="H381" t="n">
         <v>12000</v>
       </c>
       <c r="I381" t="n">
-        <v>6668.32895</v>
+        <v>8072.0551</v>
       </c>
       <c r="J381" t="n">
         <v>33.8983050847458</v>
@@ -31090,13 +31090,13 @@
         <v>220</v>
       </c>
       <c r="G382" t="n">
-        <v>1272.25721105126</v>
+        <v>1317.10185201656</v>
       </c>
       <c r="H382" t="n">
         <v>12000</v>
       </c>
       <c r="I382" t="n">
-        <v>6668.32895</v>
+        <v>8072.0551</v>
       </c>
       <c r="J382" t="n">
         <v>33.8983050847458</v>
@@ -32516,13 +32516,13 @@
         <v>210</v>
       </c>
       <c r="G400" t="n">
-        <v>1203.07199055214</v>
+        <v>1248.68981498236</v>
       </c>
       <c r="H400" t="n">
         <v>12000</v>
       </c>
       <c r="I400" t="n">
-        <v>6315.90527</v>
+        <v>7903.40556</v>
       </c>
       <c r="J400" t="n">
         <v>36.2068965517241</v>
@@ -32601,13 +32601,13 @@
         <v>210</v>
       </c>
       <c r="G401" t="n">
-        <v>1203.07199055214</v>
+        <v>1248.68981498236</v>
       </c>
       <c r="H401" t="n">
         <v>12000</v>
       </c>
       <c r="I401" t="n">
-        <v>6315.90527</v>
+        <v>7903.40556</v>
       </c>
       <c r="J401" t="n">
         <v>36.2068965517241</v>
@@ -32686,13 +32686,13 @@
         <v>210</v>
       </c>
       <c r="G402" t="n">
-        <v>1203.07199055214</v>
+        <v>1248.68981498236</v>
       </c>
       <c r="H402" t="n">
         <v>12000</v>
       </c>
       <c r="I402" t="n">
-        <v>6315.90527</v>
+        <v>7903.40556</v>
       </c>
       <c r="J402" t="n">
         <v>36.2068965517241</v>
@@ -32771,13 +32771,13 @@
         <v>210</v>
       </c>
       <c r="G403" t="n">
-        <v>1203.07199055214</v>
+        <v>1248.68981498236</v>
       </c>
       <c r="H403" t="n">
         <v>12000</v>
       </c>
       <c r="I403" t="n">
-        <v>6315.90527</v>
+        <v>7903.40556</v>
       </c>
       <c r="J403" t="n">
         <v>36.2068965517241</v>
